--- a/BackTest/2019-11-21 BackTest PLY.xlsx
+++ b/BackTest/2019-11-21 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3.36</v>
@@ -521,7 +521,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3.36</v>
@@ -562,7 +562,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3.36</v>
@@ -603,7 +603,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3.36</v>
@@ -640,7 +640,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3.36</v>
@@ -681,7 +681,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3.36</v>
@@ -722,7 +722,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3.36</v>
@@ -759,7 +759,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3.36</v>
@@ -800,7 +800,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3.36</v>
@@ -841,7 +841,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3.36</v>
@@ -878,7 +878,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.36</v>
@@ -919,7 +919,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3.36</v>
@@ -960,7 +960,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3.36</v>
@@ -997,7 +997,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3.36</v>
@@ -1038,7 +1038,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3.36</v>
@@ -1079,7 +1079,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3.36</v>
@@ -1116,7 +1116,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3.36</v>
@@ -1157,7 +1157,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3.36</v>
@@ -1198,7 +1198,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3.36</v>
@@ -1235,7 +1235,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3.36</v>
@@ -1276,7 +1276,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3.36</v>
@@ -1317,7 +1317,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3.36</v>
@@ -1354,7 +1354,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3.36</v>
@@ -1395,7 +1395,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.36</v>
@@ -1436,7 +1436,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3.36</v>
@@ -1473,7 +1473,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.36</v>
@@ -1514,7 +1514,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>3.36</v>
@@ -1555,7 +1555,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3.36</v>
@@ -1592,7 +1592,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3.36</v>
@@ -1633,7 +1633,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.36</v>
@@ -1674,7 +1674,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.36</v>
@@ -1711,7 +1711,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.36</v>
@@ -1752,7 +1752,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3.36</v>
@@ -1793,7 +1793,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.36</v>
@@ -1830,7 +1830,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3.36</v>
@@ -1871,7 +1871,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3.36</v>
@@ -1912,7 +1912,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3.36</v>
@@ -1949,7 +1949,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3.36</v>
@@ -1990,7 +1990,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3.36</v>
@@ -2031,7 +2031,7 @@
         <v>284990.0583428581</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3.36</v>
@@ -2072,7 +2072,7 @@
         <v>285145.2328428581</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.35</v>
@@ -2113,7 +2113,7 @@
         <v>285145.2328428581</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3.36</v>
@@ -2154,7 +2154,7 @@
         <v>285145.2328428581</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.36</v>
@@ -2195,7 +2195,7 @@
         <v>747112.3391428581</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3.36</v>
@@ -2236,7 +2236,7 @@
         <v>578416.345042858</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.37</v>
@@ -2277,7 +2277,7 @@
         <v>1084089.075842858</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3.36</v>
@@ -2318,7 +2318,7 @@
         <v>959461.4867428581</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3.37</v>
@@ -2359,7 +2359,7 @@
         <v>959461.4867428581</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>3.36</v>
@@ -2400,7 +2400,7 @@
         <v>1122672.761342858</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.36</v>
@@ -2441,7 +2441,7 @@
         <v>1122672.761342858</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3.37</v>
@@ -2482,7 +2482,7 @@
         <v>627353.269542858</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>3.37</v>
@@ -2523,7 +2523,7 @@
         <v>1058219.865542858</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>3.36</v>
@@ -2564,7 +2564,7 @@
         <v>825178.735442858</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>3.37</v>
@@ -2605,7 +2605,7 @@
         <v>825178.735442858</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>3.36</v>
@@ -2646,7 +2646,7 @@
         <v>825178.735442858</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>3.36</v>
@@ -2687,7 +2687,7 @@
         <v>825178.735442858</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>3.36</v>
@@ -2728,7 +2728,7 @@
         <v>1034378.785142858</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.36</v>
@@ -2769,7 +2769,7 @@
         <v>658174.7283428579</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>3.37</v>
@@ -2810,7 +2810,7 @@
         <v>1174710.298342858</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3.36</v>
@@ -2851,7 +2851,7 @@
         <v>1152243.460442858</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.37</v>
@@ -2892,7 +2892,7 @@
         <v>1152243.460442858</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3.36</v>
@@ -2933,7 +2933,7 @@
         <v>1152243.460442858</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3.36</v>
@@ -2974,7 +2974,7 @@
         <v>1621501.034342858</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>3.36</v>
@@ -3015,7 +3015,7 @@
         <v>1621501.034342858</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>3.37</v>
@@ -3056,7 +3056,7 @@
         <v>1621501.034342858</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>3.37</v>
@@ -3097,7 +3097,7 @@
         <v>1621501.034342858</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>3.37</v>
@@ -3138,7 +3138,7 @@
         <v>1626352.034342858</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>3.37</v>
@@ -3179,7 +3179,7 @@
         <v>1635871.934042858</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>3.38</v>
@@ -3220,7 +3220,7 @@
         <v>1398465.222842858</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>3.39</v>
@@ -3261,7 +3261,7 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>3.38</v>
@@ -3302,7 +3302,7 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>3.39</v>
@@ -3343,7 +3343,7 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>3.39</v>
@@ -3384,7 +3384,7 @@
         <v>1830761.832042858</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>3.39</v>
@@ -3425,7 +3425,7 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3.38</v>
@@ -3466,7 +3466,7 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3.39</v>
@@ -3507,7 +3507,7 @@
         <v>1726866.388342858</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.39</v>
@@ -3548,7 +3548,7 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3.38</v>
@@ -3589,7 +3589,7 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3.39</v>
@@ -3630,7 +3630,7 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>3.39</v>
@@ -3671,7 +3671,7 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>3.39</v>
@@ -3712,7 +3712,7 @@
         <v>1741135.789842858</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>3.39</v>
@@ -3753,7 +3753,7 @@
         <v>1741135.789842858</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>3.38</v>
@@ -3794,7 +3794,7 @@
         <v>1741135.789842858</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>3.38</v>
@@ -3835,7 +3835,7 @@
         <v>1940786.447842858</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>3.38</v>
@@ -3876,7 +3876,7 @@
         <v>1940786.447842858</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>3.39</v>
@@ -3917,7 +3917,7 @@
         <v>1577671.714942858</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>3.39</v>
@@ -3958,7 +3958,7 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3.38</v>
@@ -3999,7 +3999,7 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>3.39</v>
@@ -4040,7 +4040,7 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3.39</v>
@@ -4081,7 +4081,7 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3.39</v>
@@ -4122,7 +4122,7 @@
         <v>1686182.671342858</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.39</v>
@@ -4163,7 +4163,7 @@
         <v>1429332.157342858</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3.4</v>
@@ -4204,7 +4204,7 @@
         <v>1828847.974242858</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3.39</v>
@@ -4245,11 +4245,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>3.36</v>
       </c>
@@ -4286,11 +4284,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>3.36</v>
       </c>
@@ -4327,7 +4323,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>3.39</v>
@@ -4368,11 +4364,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>3.36</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3.39</v>
@@ -4450,7 +4444,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3.39</v>
@@ -4491,7 +4485,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3.39</v>
@@ -4532,7 +4526,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3.39</v>
@@ -4573,7 +4567,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3.39</v>
@@ -4614,9 +4608,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J105" t="n">
         <v>3.36</v>
       </c>
@@ -4653,9 +4649,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J106" t="n">
         <v>3.36</v>
       </c>
@@ -4692,9 +4690,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J107" t="n">
         <v>3.36</v>
       </c>
@@ -4731,9 +4731,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J108" t="n">
         <v>3.36</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.39</v>
@@ -4811,7 +4813,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.39</v>
@@ -4852,9 +4854,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J111" t="n">
         <v>3.36</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.39</v>
@@ -4932,9 +4936,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J113" t="n">
         <v>3.36</v>
       </c>
@@ -4971,9 +4977,11 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J114" t="n">
         <v>3.36</v>
       </c>
@@ -5010,9 +5018,11 @@
         <v>1576219.267942858</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J115" t="n">
         <v>3.36</v>
       </c>
@@ -5049,9 +5059,11 @@
         <v>992150.9716428581</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J116" t="n">
         <v>3.36</v>
       </c>
@@ -6999,9 +7011,11 @@
         <v>802665.8610428583</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J166" t="n">
         <v>3.36</v>
       </c>
@@ -7038,9 +7052,11 @@
         <v>1037602.842942858</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J167" t="n">
         <v>3.36</v>
       </c>
@@ -7077,9 +7093,11 @@
         <v>1037602.842942858</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J168" t="n">
         <v>3.36</v>
       </c>
@@ -7116,9 +7134,11 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J169" t="n">
         <v>3.36</v>
       </c>
@@ -7155,9 +7175,11 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J170" t="n">
         <v>3.36</v>
       </c>
@@ -7194,9 +7216,11 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J171" t="n">
         <v>3.36</v>
       </c>
@@ -7233,9 +7257,11 @@
         <v>1168973.055542858</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J172" t="n">
         <v>3.36</v>
       </c>
@@ -7272,9 +7298,11 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J173" t="n">
         <v>3.36</v>
       </c>
@@ -7311,9 +7339,11 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J174" t="n">
         <v>3.36</v>
       </c>
@@ -7350,7 +7380,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.36</v>
@@ -7391,7 +7421,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.36</v>
@@ -7432,7 +7462,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.36</v>
@@ -7473,7 +7503,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3.36</v>
@@ -7514,7 +7544,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.36</v>
@@ -7555,7 +7585,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.36</v>
@@ -7596,7 +7626,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.36</v>
@@ -7637,7 +7667,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.36</v>
@@ -7678,7 +7708,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.36</v>
@@ -7719,7 +7749,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>3.36</v>
@@ -7760,7 +7790,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>3.36</v>
@@ -7801,7 +7831,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>3.37</v>
@@ -7842,7 +7872,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>3.37</v>
@@ -7883,7 +7913,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>3.37</v>
@@ -7924,7 +7954,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3.37</v>
@@ -7965,7 +7995,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>3.37</v>
@@ -8006,7 +8036,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>3.37</v>
@@ -8047,7 +8077,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>3.37</v>
@@ -8088,7 +8118,7 @@
         <v>1467433.370242858</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>3.37</v>
@@ -8129,7 +8159,7 @@
         <v>1182960.333042858</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>3.37</v>
@@ -8170,7 +8200,7 @@
         <v>1182960.333042858</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>3.36</v>
@@ -8211,7 +8241,7 @@
         <v>1825948.104442858</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>3.36</v>
@@ -8252,7 +8282,7 @@
         <v>1825948.104442858</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>3.37</v>
@@ -8293,7 +8323,7 @@
         <v>1825948.104442858</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>3.37</v>
@@ -8334,7 +8364,7 @@
         <v>1616891.964442858</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>3.37</v>
@@ -8375,7 +8405,7 @@
         <v>1859100.519242858</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>3.36</v>
@@ -8416,7 +8446,7 @@
         <v>1722838.641542858</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>3.37</v>
@@ -8457,7 +8487,7 @@
         <v>1931899.966442858</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>3.36</v>
@@ -8498,7 +8528,7 @@
         <v>1676084.151742858</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>3.37</v>
@@ -8539,7 +8569,7 @@
         <v>1676084.151742858</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>3.36</v>
@@ -8580,7 +8610,7 @@
         <v>1885339.971742858</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>3.36</v>
@@ -8621,7 +8651,7 @@
         <v>1735189.915942858</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>3.37</v>
@@ -8662,7 +8692,7 @@
         <v>2093242.136742858</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>3.36</v>
@@ -8703,7 +8733,7 @@
         <v>1781579.747242858</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>3.37</v>
@@ -8744,7 +8774,7 @@
         <v>2016327.680942858</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>3.36</v>
@@ -8785,7 +8815,7 @@
         <v>1743508.804142858</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>3.37</v>
@@ -8826,7 +8856,7 @@
         <v>2267437.796242858</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>3.36</v>
@@ -8867,7 +8897,7 @@
         <v>2267437.796242858</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>3.37</v>
@@ -8908,7 +8938,7 @@
         <v>2035402.728542858</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>3.37</v>
@@ -8949,7 +8979,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>3.36</v>
@@ -8990,7 +9020,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>3.37</v>
@@ -9031,7 +9061,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>3.37</v>
@@ -9072,7 +9102,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>3.37</v>
@@ -9113,7 +9143,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>3.37</v>
@@ -9154,7 +9184,7 @@
         <v>2049606.627042858</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>3.37</v>
@@ -9195,7 +9225,7 @@
         <v>2206865.447042858</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>3.36</v>
@@ -9236,7 +9266,7 @@
         <v>1756710.080442858</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>3.37</v>
@@ -9277,7 +9307,7 @@
         <v>2178178.020542858</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>3.36</v>
@@ -9318,7 +9348,7 @@
         <v>1903678.020542858</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>3.37</v>
@@ -9359,7 +9389,7 @@
         <v>1903678.020542858</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>3.36</v>
@@ -9400,7 +9430,7 @@
         <v>2436656.573642858</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>3.36</v>
@@ -9441,7 +9471,7 @@
         <v>2436656.573642858</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>3.37</v>
@@ -9482,7 +9512,7 @@
         <v>1741851.358342858</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>3.37</v>
@@ -9523,7 +9553,7 @@
         <v>1741851.358342858</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>3.36</v>
@@ -9564,7 +9594,7 @@
         <v>1741851.358342858</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>3.36</v>
@@ -9605,7 +9635,7 @@
         <v>1946939.217442858</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>3.36</v>
@@ -9646,7 +9676,7 @@
         <v>1589767.380442858</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>3.37</v>
@@ -9687,7 +9717,7 @@
         <v>1589767.380442858</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>3.36</v>
@@ -9728,7 +9758,7 @@
         <v>1589767.380442858</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>3.36</v>
@@ -9769,7 +9799,7 @@
         <v>1589767.380442858</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>3.36</v>
@@ -9810,7 +9840,7 @@
         <v>1589767.380442858</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>3.36</v>
@@ -9851,7 +9881,7 @@
         <v>1880942.524242858</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>3.36</v>
@@ -9892,7 +9922,7 @@
         <v>1880942.524242858</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>3.37</v>
@@ -9933,7 +9963,7 @@
         <v>1619013.776942858</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>3.37</v>
@@ -9974,7 +10004,7 @@
         <v>1619013.776942858</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>3.36</v>
@@ -10015,7 +10045,7 @@
         <v>1996533.630242858</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>3.36</v>
@@ -10056,7 +10086,7 @@
         <v>1996533.630242858</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>3.37</v>
@@ -10097,7 +10127,7 @@
         <v>1996533.630242858</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>3.37</v>
@@ -10138,7 +10168,7 @@
         <v>1620315.518542858</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>3.37</v>
@@ -10179,7 +10209,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>3.36</v>
@@ -10220,7 +10250,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>3.37</v>
@@ -10261,7 +10291,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>3.37</v>
@@ -10302,7 +10332,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>3.37</v>
@@ -10343,7 +10373,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>3.37</v>
@@ -10384,7 +10414,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>3.37</v>
@@ -10425,7 +10455,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>3.37</v>
@@ -10466,7 +10496,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>3.37</v>
@@ -10507,7 +10537,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>3.37</v>
@@ -10548,7 +10578,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>3.37</v>
@@ -10589,7 +10619,7 @@
         <v>1830106.459642858</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>3.37</v>
@@ -10630,7 +10660,7 @@
         <v>2137316.923542858</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>3.36</v>
@@ -10671,7 +10701,7 @@
         <v>2137316.923542858</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>3.37</v>
@@ -10712,7 +10742,7 @@
         <v>2137316.923542858</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>3.37</v>
@@ -10753,7 +10783,7 @@
         <v>2137316.923542858</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>3.37</v>
@@ -10794,7 +10824,7 @@
         <v>1835946.340642858</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>3.37</v>
@@ -10835,7 +10865,7 @@
         <v>1835946.340642858</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>3.36</v>
@@ -10876,7 +10906,7 @@
         <v>1917383.149342858</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>3.36</v>
@@ -10917,7 +10947,7 @@
         <v>1917383.149342858</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>3.37</v>
@@ -10958,7 +10988,7 @@
         <v>1927321.852982918</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>3.37</v>
@@ -10999,7 +11029,7 @@
         <v>1827321.852982918</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>3.38</v>
@@ -11040,7 +11070,7 @@
         <v>1827321.852982918</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>3.37</v>
@@ -11081,7 +11111,7 @@
         <v>1827321.852982918</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>3.37</v>
@@ -11122,7 +11152,7 @@
         <v>1827469.852982918</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>3.37</v>
@@ -11163,7 +11193,7 @@
         <v>1827469.852982918</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>3.38</v>
@@ -11204,7 +11234,7 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>3.38</v>
@@ -11245,7 +11275,7 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>3.39</v>
@@ -11286,7 +11316,7 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>3.39</v>
@@ -11327,7 +11357,7 @@
         <v>1631332.557882918</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>3.39</v>
@@ -11368,7 +11398,7 @@
         <v>1631332.557882918</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>3.38</v>
@@ -11409,7 +11439,7 @@
         <v>1845515.192882918</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>3.38</v>
@@ -11450,7 +11480,7 @@
         <v>1725814.735882918</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>3.39</v>
@@ -11491,7 +11521,7 @@
         <v>1945832.668982918</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>3.38</v>
@@ -11532,7 +11562,7 @@
         <v>1867605.034982918</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>3.39</v>
@@ -11573,7 +11603,7 @@
         <v>1867605.034982918</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>3.38</v>
@@ -11614,7 +11644,7 @@
         <v>1968532.042882918</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>3.38</v>
@@ -11655,7 +11685,7 @@
         <v>1968532.042882918</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>3.39</v>
@@ -11696,7 +11726,7 @@
         <v>1968532.042882918</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>3.39</v>
@@ -11737,7 +11767,7 @@
         <v>1968824.696482918</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>3.39</v>
@@ -11778,7 +11808,7 @@
         <v>1964434.614282918</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>3.4</v>
@@ -11819,7 +11849,7 @@
         <v>1983663.606182918</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>3.38</v>
@@ -11860,7 +11890,7 @@
         <v>1790368.640682918</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>3.39</v>
@@ -11901,7 +11931,7 @@
         <v>1924618.752382918</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>3.38</v>
@@ -11942,7 +11972,7 @@
         <v>1924618.752382918</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>3.39</v>
@@ -11983,7 +12013,7 @@
         <v>2210486.525482918</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>3.39</v>
@@ -12024,7 +12054,7 @@
         <v>2077019.548482918</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>3.41</v>
@@ -12065,11 +12095,9 @@
         <v>2077019.548482918</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>3.36</v>
       </c>
@@ -12106,11 +12134,9 @@
         <v>896131.6155829178</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
         <v>3.36</v>
       </c>
@@ -12147,7 +12173,7 @@
         <v>900702.1013829178</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>3.38</v>
@@ -12188,7 +12214,7 @@
         <v>900702.1013829178</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>3.4</v>
@@ -12229,11 +12255,9 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>3.36</v>
       </c>
@@ -12270,11 +12294,9 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>3.36</v>
       </c>
@@ -12350,11 +12372,9 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>3.36</v>
       </c>
@@ -12469,9 +12489,11 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J300" t="n">
         <v>3.36</v>
       </c>
@@ -12508,9 +12530,11 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J301" t="n">
         <v>3.36</v>
       </c>
@@ -12547,9 +12571,11 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J302" t="n">
         <v>3.36</v>
       </c>
@@ -12586,9 +12612,11 @@
         <v>824933.5084829178</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J303" t="n">
         <v>3.36</v>
       </c>
@@ -12625,11 +12653,9 @@
         <v>959074.0309829178</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
         <v>3.36</v>
       </c>
@@ -18477,7 +18503,7 @@
         <v>66327034.86452384</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
@@ -18945,7 +18971,7 @@
         <v>65041120.46862384</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
@@ -18953,13 +18979,15 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
+        <v>1.051547619047619</v>
+      </c>
+      <c r="M466" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -18984,17 +19012,11 @@
         <v>64523179.26702384</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -19023,17 +19045,11 @@
         <v>64541376.91492384</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -19062,17 +19078,11 @@
         <v>64770776.64492384</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -19101,17 +19111,11 @@
         <v>64799781.08052383</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -19140,17 +19144,11 @@
         <v>64424867.43652383</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19179,17 +19177,11 @@
         <v>64581856.28882384</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19221,14 +19213,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19260,14 +19246,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19299,14 +19279,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19338,14 +19312,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19377,14 +19345,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19416,14 +19378,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19455,14 +19411,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19494,14 +19444,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19533,14 +19477,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19572,14 +19510,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19611,14 +19543,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19650,14 +19576,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19689,14 +19609,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19728,14 +19642,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19767,14 +19675,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19806,14 +19708,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19845,14 +19741,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19884,14 +19774,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19923,14 +19807,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19962,14 +19840,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -20001,14 +19873,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -20040,14 +19906,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -20079,14 +19939,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -20118,14 +19972,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20157,14 +20005,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20196,14 +20038,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20235,14 +20071,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20274,14 +20104,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20313,14 +20137,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20352,14 +20170,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20391,14 +20203,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20430,14 +20236,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20469,14 +20269,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20508,14 +20302,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20547,14 +20335,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20586,14 +20368,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20625,14 +20401,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20664,14 +20434,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20703,14 +20467,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20742,14 +20500,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20781,14 +20533,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20820,14 +20566,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20859,14 +20599,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20898,14 +20632,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20937,14 +20665,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20976,14 +20698,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -21015,14 +20731,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -21054,14 +20764,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -21093,14 +20797,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -21132,14 +20830,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -21171,14 +20863,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21210,14 +20896,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21249,14 +20929,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21288,14 +20962,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21327,14 +20995,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21366,14 +21028,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21405,14 +21061,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21444,14 +21094,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21483,14 +21127,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21522,14 +21160,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21561,14 +21193,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21600,14 +21226,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21639,14 +21259,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21678,14 +21292,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21717,14 +21325,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21756,14 +21358,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21795,14 +21391,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21834,14 +21424,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21873,14 +21457,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21912,14 +21490,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21951,14 +21523,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21990,14 +21556,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -22029,14 +21589,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -22068,14 +21622,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -22107,14 +21655,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -22146,14 +21688,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22185,14 +21721,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22224,14 +21754,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22263,14 +21787,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22302,14 +21820,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22341,14 +21853,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22380,14 +21886,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22419,14 +21919,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22458,14 +21952,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22497,14 +21985,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22536,14 +22018,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22575,14 +22051,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22614,14 +22084,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22653,14 +22117,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22692,14 +22150,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22731,14 +22183,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22770,14 +22216,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22809,14 +22249,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22848,14 +22282,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22887,14 +22315,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22926,14 +22348,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22965,14 +22381,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -23004,14 +22414,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -23043,14 +22447,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -23082,14 +22480,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -23121,14 +22513,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23160,14 +22546,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23199,14 +22579,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23238,14 +22612,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23277,14 +22645,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23316,14 +22678,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23355,14 +22711,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23394,14 +22744,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23433,14 +22777,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23472,14 +22810,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23511,14 +22843,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23550,14 +22876,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23589,14 +22909,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23628,14 +22942,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23667,14 +22975,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23706,14 +23008,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23745,14 +23041,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23784,14 +23074,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23823,14 +23107,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23862,14 +23140,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23901,14 +23173,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23940,14 +23206,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23979,14 +23239,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -24018,14 +23272,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -24057,14 +23305,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24096,14 +23338,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24135,14 +23371,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24174,14 +23404,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24213,14 +23437,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24252,14 +23470,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24291,14 +23503,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24330,14 +23536,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24369,14 +23569,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24408,14 +23602,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24447,14 +23635,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24486,14 +23668,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24525,14 +23701,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24564,14 +23734,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24603,14 +23767,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24642,14 +23800,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24681,14 +23833,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24720,14 +23866,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24759,14 +23899,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24798,14 +23932,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24837,14 +23965,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24876,14 +23998,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24915,14 +24031,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24954,14 +24064,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24993,14 +24097,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -25032,14 +24130,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -25071,14 +24163,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -25110,14 +24196,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -25149,14 +24229,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -25188,14 +24262,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -25227,14 +24295,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25266,14 +24328,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25305,14 +24361,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25344,14 +24394,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25383,14 +24427,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25422,14 +24460,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25461,14 +24493,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25500,14 +24526,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25539,14 +24559,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25578,14 +24592,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25617,14 +24625,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25656,14 +24658,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25695,14 +24691,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25734,14 +24724,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25773,14 +24757,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25812,14 +24790,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25851,14 +24823,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25890,14 +24856,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25929,14 +24889,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25968,14 +24922,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -26007,14 +24955,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -26046,14 +24988,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -26085,14 +25021,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -26124,14 +25054,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -26163,14 +25087,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -26202,14 +25120,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -26241,14 +25153,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -26280,14 +25186,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -26319,14 +25219,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26358,14 +25252,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26397,14 +25285,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26436,14 +25318,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26475,14 +25351,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26514,14 +25384,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26553,14 +25417,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26592,14 +25450,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26631,14 +25483,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26670,14 +25516,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26709,14 +25549,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26748,14 +25582,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26787,14 +25615,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26826,14 +25648,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -26865,14 +25681,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26904,14 +25714,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26943,14 +25747,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26982,14 +25780,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -27021,14 +25813,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -27060,14 +25846,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -27099,14 +25879,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -27138,14 +25912,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -27177,14 +25945,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -27216,14 +25978,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -27255,14 +26011,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -27294,14 +26044,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -27333,14 +26077,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -27372,14 +26110,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -27411,14 +26143,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -27450,14 +26176,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -27489,14 +26209,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -27528,14 +26242,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -27567,14 +26275,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -27606,14 +26308,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -27645,14 +26341,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -27684,14 +26374,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -27723,14 +26407,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -27762,14 +26440,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -27801,14 +26473,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -27840,14 +26506,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -27879,14 +26539,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27918,14 +26572,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27957,14 +26605,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27996,14 +26638,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -28035,14 +26671,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -28074,14 +26704,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -28113,14 +26737,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -28152,14 +26770,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -28191,14 +26803,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -28230,14 +26836,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -28269,14 +26869,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -28308,14 +26902,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -28347,14 +26935,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -28386,14 +26968,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -28425,14 +27001,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -28464,14 +27034,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -28503,14 +27067,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -28542,14 +27100,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -28581,14 +27133,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -28620,14 +27166,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -28659,14 +27199,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -28695,19 +27229,13 @@
         <v>64557181.87232382</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
-        <v>1.045595238095238</v>
+        <v>1</v>
       </c>
       <c r="M716" t="inlineStr"/>
     </row>
@@ -28734,7 +27262,7 @@
         <v>64845722.83622382</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -28767,7 +27295,7 @@
         <v>64845722.83622382</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -28800,7 +27328,7 @@
         <v>64845722.83622382</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -28833,7 +27361,7 @@
         <v>64845722.83622382</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -28899,7 +27427,7 @@
         <v>65251998.70836421</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -28932,7 +27460,7 @@
         <v>65251998.70836421</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -28965,7 +27493,7 @@
         <v>65248998.70836421</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -28998,7 +27526,7 @@
         <v>65248998.70836421</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -29031,7 +27559,7 @@
         <v>65248998.70836421</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -29064,7 +27592,7 @@
         <v>65298971.42502382</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -29097,7 +27625,7 @@
         <v>65298971.42502382</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -29130,7 +27658,7 @@
         <v>65786354.97172382</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -29163,7 +27691,7 @@
         <v>65786354.97172382</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -29196,7 +27724,7 @@
         <v>65803106.66422383</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -29229,7 +27757,7 @@
         <v>65543290.50822382</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -29262,7 +27790,7 @@
         <v>65768066.79042383</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -29295,7 +27823,7 @@
         <v>65411599.79122382</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -29328,7 +27856,7 @@
         <v>65411599.79122382</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -29361,7 +27889,7 @@
         <v>65193782.69062383</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -29394,7 +27922,7 @@
         <v>65042685.00782382</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -29427,7 +27955,7 @@
         <v>64914798.49702383</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -29460,7 +27988,7 @@
         <v>64893688.53682383</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -39503,6 +38031,6 @@
       <c r="M1043" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest PLY.xlsx
+++ b/BackTest/2019-11-21 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>3.36</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -611,7 +603,11 @@
       <c r="J6" t="n">
         <v>3.36</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -648,11 +644,7 @@
       <c r="J7" t="n">
         <v>3.36</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -730,7 +722,11 @@
       <c r="J9" t="n">
         <v>3.36</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,11 +763,7 @@
       <c r="J10" t="n">
         <v>3.36</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -849,7 +841,11 @@
       <c r="J12" t="n">
         <v>3.36</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,11 +882,7 @@
       <c r="J13" t="n">
         <v>3.36</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -968,7 +960,11 @@
       <c r="J15" t="n">
         <v>3.36</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,11 +1001,7 @@
       <c r="J16" t="n">
         <v>3.36</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1087,7 +1079,11 @@
       <c r="J18" t="n">
         <v>3.36</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1124,11 +1120,7 @@
       <c r="J19" t="n">
         <v>3.36</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1206,7 +1198,11 @@
       <c r="J21" t="n">
         <v>3.36</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1239,7 @@
       <c r="J22" t="n">
         <v>3.36</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1325,7 +1317,11 @@
       <c r="J24" t="n">
         <v>3.36</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1362,11 +1358,7 @@
       <c r="J25" t="n">
         <v>3.36</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1444,7 +1436,11 @@
       <c r="J27" t="n">
         <v>3.36</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1481,11 +1477,7 @@
       <c r="J28" t="n">
         <v>3.36</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1563,7 +1555,11 @@
       <c r="J30" t="n">
         <v>3.36</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1600,11 +1596,7 @@
       <c r="J31" t="n">
         <v>3.36</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1682,7 +1674,11 @@
       <c r="J33" t="n">
         <v>3.36</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1719,11 +1715,7 @@
       <c r="J34" t="n">
         <v>3.36</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1801,7 +1793,11 @@
       <c r="J36" t="n">
         <v>3.36</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +1834,7 @@
       <c r="J37" t="n">
         <v>3.36</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1920,7 +1912,11 @@
       <c r="J39" t="n">
         <v>3.36</v>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1957,11 +1953,7 @@
       <c r="J40" t="n">
         <v>3.36</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3335,9 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>3.36</v>
       </c>
@@ -3384,11 +3374,9 @@
         <v>1830761.832042858</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>3.36</v>
       </c>
@@ -3425,11 +3413,9 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>3.36</v>
       </c>
@@ -3466,11 +3452,9 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>3.36</v>
       </c>
@@ -3507,11 +3491,9 @@
         <v>1726866.388342858</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>3.36</v>
       </c>
@@ -3548,11 +3530,9 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>3.36</v>
       </c>
@@ -3589,11 +3569,9 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>3.36</v>
       </c>
@@ -3630,11 +3608,9 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>3.36</v>
       </c>
@@ -3671,11 +3647,9 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>3.36</v>
       </c>
@@ -3712,11 +3686,9 @@
         <v>1741135.789842858</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>3.36</v>
       </c>
@@ -3753,11 +3725,9 @@
         <v>1741135.789842858</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>3.36</v>
       </c>
@@ -3794,11 +3764,9 @@
         <v>1741135.789842858</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>3.36</v>
       </c>
@@ -3835,11 +3803,9 @@
         <v>1940786.447842858</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>3.36</v>
       </c>
@@ -3876,11 +3842,9 @@
         <v>1940786.447842858</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>3.36</v>
       </c>
@@ -3917,11 +3881,9 @@
         <v>1577671.714942858</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>3.36</v>
       </c>
@@ -3958,11 +3920,9 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>3.36</v>
       </c>
@@ -3999,11 +3959,9 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>3.36</v>
       </c>
@@ -4040,11 +3998,9 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>3.36</v>
       </c>
@@ -4081,11 +4037,9 @@
         <v>1686034.671342858</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>3.36</v>
       </c>
@@ -4122,11 +4076,9 @@
         <v>1686182.671342858</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>3.36</v>
       </c>
@@ -4163,11 +4115,9 @@
         <v>1429332.157342858</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>3.36</v>
       </c>
@@ -4204,11 +4154,9 @@
         <v>1828847.974242858</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>3.36</v>
       </c>
@@ -4323,11 +4271,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>3.36</v>
       </c>
@@ -4403,11 +4349,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>3.36</v>
       </c>
@@ -4444,11 +4388,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>3.36</v>
       </c>
@@ -4485,11 +4427,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>3.36</v>
       </c>
@@ -4526,11 +4466,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>3.36</v>
       </c>
@@ -4567,11 +4505,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>3.36</v>
       </c>
@@ -4608,11 +4544,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>3.36</v>
       </c>
@@ -4649,11 +4583,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>3.36</v>
       </c>
@@ -4690,11 +4622,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>3.36</v>
       </c>
@@ -4731,11 +4661,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>3.36</v>
       </c>
@@ -4772,11 +4700,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>3.36</v>
       </c>
@@ -4813,11 +4739,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>3.36</v>
       </c>
@@ -4854,11 +4778,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>3.36</v>
       </c>
@@ -4895,11 +4817,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>3.36</v>
       </c>
@@ -4936,11 +4856,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>3.36</v>
       </c>
@@ -4977,11 +4895,9 @@
         <v>1576039.394842858</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>3.36</v>
       </c>
@@ -5018,11 +4934,9 @@
         <v>1576219.267942858</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>3.36</v>
       </c>
@@ -5059,11 +4973,9 @@
         <v>992150.9716428581</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>3.36</v>
       </c>
@@ -7011,11 +6923,9 @@
         <v>802665.8610428583</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>3.36</v>
       </c>
@@ -7052,11 +6962,9 @@
         <v>1037602.842942858</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>3.36</v>
       </c>
@@ -7093,11 +7001,9 @@
         <v>1037602.842942858</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>3.36</v>
       </c>
@@ -7134,11 +7040,9 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>3.36</v>
       </c>
@@ -7175,11 +7079,9 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>3.36</v>
       </c>
@@ -11193,11 +11095,9 @@
         <v>1827469.852982918</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>3.36</v>
       </c>
@@ -11234,11 +11134,9 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>3.36</v>
       </c>
@@ -11275,11 +11173,9 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>3.36</v>
       </c>
@@ -11316,11 +11212,9 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>3.36</v>
       </c>
@@ -11357,11 +11251,9 @@
         <v>1631332.557882918</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>3.36</v>
       </c>
@@ -11398,11 +11290,9 @@
         <v>1631332.557882918</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>3.36</v>
       </c>
@@ -11439,11 +11329,9 @@
         <v>1845515.192882918</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>3.36</v>
       </c>
@@ -11480,11 +11368,9 @@
         <v>1725814.735882918</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>3.36</v>
       </c>
@@ -11521,11 +11407,9 @@
         <v>1945832.668982918</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
         <v>3.36</v>
       </c>
@@ -11562,11 +11446,9 @@
         <v>1867605.034982918</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>3.36</v>
       </c>
@@ -11603,11 +11485,9 @@
         <v>1867605.034982918</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
         <v>3.36</v>
       </c>
@@ -11644,11 +11524,9 @@
         <v>1968532.042882918</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>3.36</v>
       </c>
@@ -11685,11 +11563,9 @@
         <v>1968532.042882918</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>3.36</v>
       </c>
@@ -11726,11 +11602,9 @@
         <v>1968532.042882918</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>3.36</v>
       </c>
@@ -11767,11 +11641,9 @@
         <v>1968824.696482918</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>3.36</v>
       </c>
@@ -11808,11 +11680,9 @@
         <v>1964434.614282918</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>3.36</v>
       </c>
@@ -11849,11 +11719,9 @@
         <v>1983663.606182918</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>3.36</v>
       </c>
@@ -11890,11 +11758,9 @@
         <v>1790368.640682918</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
         <v>3.36</v>
       </c>
@@ -11931,11 +11797,9 @@
         <v>1924618.752382918</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>3.36</v>
       </c>
@@ -11972,11 +11836,9 @@
         <v>1924618.752382918</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>3.36</v>
       </c>
@@ -12013,11 +11875,9 @@
         <v>2210486.525482918</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>3.36</v>
       </c>
@@ -12054,11 +11914,9 @@
         <v>2077019.548482918</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>3.36</v>
       </c>
@@ -12173,11 +12031,9 @@
         <v>900702.1013829178</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>3.36</v>
       </c>
@@ -12214,11 +12070,9 @@
         <v>900702.1013829178</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>3.36</v>
       </c>
@@ -12489,11 +12343,9 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>3.36</v>
       </c>
@@ -12530,11 +12382,9 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
         <v>3.36</v>
       </c>
@@ -12571,11 +12421,9 @@
         <v>824785.5084829178</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
         <v>3.36</v>
       </c>
@@ -12612,11 +12460,9 @@
         <v>824933.5084829178</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>3.36</v>
       </c>
@@ -18386,7 +18232,7 @@
         <v>65761481.23522384</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
@@ -18394,13 +18240,15 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
+        <v>1.066428571428572</v>
+      </c>
+      <c r="M451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -18425,17 +18273,11 @@
         <v>65864477.95142385</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18464,17 +18306,11 @@
         <v>65971825.90462384</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18503,17 +18339,11 @@
         <v>66327034.86452384</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18542,17 +18372,11 @@
         <v>65876801.74482384</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18584,14 +18408,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18623,14 +18441,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18662,14 +18474,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18701,14 +18507,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18740,14 +18540,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18779,14 +18573,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18818,14 +18606,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18857,14 +18639,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18896,14 +18672,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18935,14 +18705,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18971,23 +18735,15 @@
         <v>65041120.46862384</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
-        <v>1.051547619047619</v>
-      </c>
-      <c r="M466" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -19012,7 +18768,7 @@
         <v>64523179.26702384</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -19045,7 +18801,7 @@
         <v>64541376.91492384</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -19078,7 +18834,7 @@
         <v>64770776.64492384</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -19111,7 +18867,7 @@
         <v>64799781.08052383</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -19144,7 +18900,7 @@
         <v>64424867.43652383</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -19177,7 +18933,7 @@
         <v>64581856.28882384</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -38031,6 +37787,6 @@
       <c r="M1043" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest PLY.xlsx
+++ b/BackTest/2019-11-21 BackTest PLY.xlsx
@@ -484,10 +484,14 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.36</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>3.36</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -603,11 +611,7 @@
       <c r="J6" t="n">
         <v>3.36</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,7 +648,11 @@
       <c r="J7" t="n">
         <v>3.36</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -722,11 +730,7 @@
       <c r="J9" t="n">
         <v>3.36</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,7 +767,11 @@
       <c r="J10" t="n">
         <v>3.36</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -841,11 +849,7 @@
       <c r="J12" t="n">
         <v>3.36</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,7 +886,11 @@
       <c r="J13" t="n">
         <v>3.36</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -960,11 +968,7 @@
       <c r="J15" t="n">
         <v>3.36</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1001,7 +1005,11 @@
       <c r="J16" t="n">
         <v>3.36</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1079,11 +1087,7 @@
       <c r="J18" t="n">
         <v>3.36</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1120,7 +1124,11 @@
       <c r="J19" t="n">
         <v>3.36</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1198,11 +1206,7 @@
       <c r="J21" t="n">
         <v>3.36</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1239,7 +1243,11 @@
       <c r="J22" t="n">
         <v>3.36</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1317,11 +1325,7 @@
       <c r="J24" t="n">
         <v>3.36</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1358,7 +1362,11 @@
       <c r="J25" t="n">
         <v>3.36</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1436,11 +1444,7 @@
       <c r="J27" t="n">
         <v>3.36</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1477,7 +1481,11 @@
       <c r="J28" t="n">
         <v>3.36</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1555,11 +1563,7 @@
       <c r="J30" t="n">
         <v>3.36</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1596,7 +1600,11 @@
       <c r="J31" t="n">
         <v>3.36</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1674,11 +1682,7 @@
       <c r="J33" t="n">
         <v>3.36</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1715,7 +1719,11 @@
       <c r="J34" t="n">
         <v>3.36</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1801,7 @@
       <c r="J36" t="n">
         <v>3.36</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1834,7 +1838,11 @@
       <c r="J37" t="n">
         <v>3.36</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1912,11 +1920,7 @@
       <c r="J39" t="n">
         <v>3.36</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1953,7 +1957,11 @@
       <c r="J40" t="n">
         <v>3.36</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -3335,9 +3343,11 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J74" t="n">
         <v>3.36</v>
       </c>
@@ -3374,9 +3384,11 @@
         <v>1830761.832042858</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J75" t="n">
         <v>3.36</v>
       </c>
@@ -3413,9 +3425,11 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J76" t="n">
         <v>3.36</v>
       </c>
@@ -3452,9 +3466,11 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J77" t="n">
         <v>3.36</v>
       </c>
@@ -3491,9 +3507,11 @@
         <v>1726866.388342858</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J78" t="n">
         <v>3.36</v>
       </c>
@@ -3530,9 +3548,11 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J79" t="n">
         <v>3.36</v>
       </c>
@@ -7118,11 +7138,9 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>3.36</v>
       </c>
@@ -7159,11 +7177,9 @@
         <v>1168973.055542858</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>3.36</v>
       </c>
@@ -7200,11 +7216,9 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>3.36</v>
       </c>
@@ -7241,11 +7255,9 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>3.36</v>
       </c>
@@ -7282,11 +7294,9 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>3.36</v>
       </c>
@@ -7323,11 +7333,9 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>3.36</v>
       </c>
@@ -11095,9 +11103,11 @@
         <v>1827469.852982918</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J268" t="n">
         <v>3.36</v>
       </c>
@@ -11134,9 +11144,11 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J269" t="n">
         <v>3.36</v>
       </c>
@@ -11173,9 +11185,11 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J270" t="n">
         <v>3.36</v>
       </c>
@@ -11212,9 +11226,11 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J271" t="n">
         <v>3.36</v>
       </c>
@@ -11251,9 +11267,11 @@
         <v>1631332.557882918</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J272" t="n">
         <v>3.36</v>
       </c>
@@ -11329,9 +11347,11 @@
         <v>1845515.192882918</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J274" t="n">
         <v>3.36</v>
       </c>
@@ -17140,7 +17160,7 @@
         <v>67943294.12417337</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
@@ -17148,13 +17168,15 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
+        <v>1.105119047619048</v>
+      </c>
+      <c r="M423" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -17179,17 +17201,11 @@
         <v>68541769.53132552</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17218,17 +17234,11 @@
         <v>68339030.97572552</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17257,17 +17267,11 @@
         <v>68337530.97572552</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17296,17 +17300,11 @@
         <v>68193189.13332552</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17335,17 +17333,11 @@
         <v>67590998.98982552</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17374,17 +17366,11 @@
         <v>67000534.33622552</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17413,17 +17399,11 @@
         <v>67000534.33622552</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17452,17 +17432,11 @@
         <v>66796163.85382552</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17491,17 +17465,11 @@
         <v>65714097.89322551</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17530,17 +17498,11 @@
         <v>65712260.73792551</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17569,17 +17531,11 @@
         <v>64652300.09882551</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17611,14 +17567,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17650,14 +17600,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17689,14 +17633,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17728,14 +17666,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17767,14 +17699,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17806,14 +17732,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17845,14 +17765,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17881,17 +17795,11 @@
         <v>64586525.88672385</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17923,14 +17831,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17962,14 +17864,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -18001,14 +17897,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18037,17 +17927,11 @@
         <v>67468561.74632384</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18076,17 +17960,11 @@
         <v>67107868.61782384</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18115,17 +17993,11 @@
         <v>66024861.01942384</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18154,17 +18026,11 @@
         <v>65975670.59832384</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18193,17 +18059,11 @@
         <v>65931864.59832384</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18235,20 +18095,12 @@
         <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
-        <v>1.066428571428572</v>
-      </c>
-      <c r="M451" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -18306,7 +18158,7 @@
         <v>65971825.90462384</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18339,7 +18191,7 @@
         <v>66327034.86452384</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18372,7 +18224,7 @@
         <v>65876801.74482384</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18537,7 +18389,7 @@
         <v>65665410.44892384</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18570,7 +18422,7 @@
         <v>65365073.54762384</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18603,7 +18455,7 @@
         <v>65503627.10022384</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18636,7 +18488,7 @@
         <v>65350669.98592384</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18867,7 +18719,7 @@
         <v>64799781.08052383</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18999,7 +18851,7 @@
         <v>63834026.40872383</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19032,7 +18884,7 @@
         <v>63834026.40872383</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -19065,7 +18917,7 @@
         <v>63834026.40872383</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19098,7 +18950,7 @@
         <v>63608335.52162383</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19131,7 +18983,7 @@
         <v>63608335.52162383</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19197,7 +19049,7 @@
         <v>63404368.66572383</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19329,7 +19181,7 @@
         <v>63312124.15792383</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19725,7 +19577,7 @@
         <v>63046379.62682383</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -27513,7 +27365,7 @@
         <v>65543290.50822382</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27546,7 +27398,7 @@
         <v>65768066.79042383</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27612,7 +27464,7 @@
         <v>65411599.79122382</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27645,7 +27497,7 @@
         <v>65193782.69062383</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27678,7 +27530,7 @@
         <v>65042685.00782382</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28173,7 +28025,7 @@
         <v>64578261.57332383</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28206,7 +28058,7 @@
         <v>64867507.42692383</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28239,7 +28091,7 @@
         <v>64886335.00712384</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28272,7 +28124,7 @@
         <v>64737588.40752383</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28305,7 +28157,7 @@
         <v>64737588.40752383</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28338,7 +28190,7 @@
         <v>64630515.74872383</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28371,7 +28223,7 @@
         <v>64384134.07752384</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28404,7 +28256,7 @@
         <v>64399982.98482384</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28437,7 +28289,7 @@
         <v>64258337.80992384</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28470,7 +28322,7 @@
         <v>64258337.80992384</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
